--- a/Abhishek_assigment.xlsx
+++ b/Abhishek_assigment.xlsx
@@ -427,7 +427,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/Abhishek_assigment.xlsx
+++ b/Abhishek_assigment.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Invoice_Detail" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="196">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -296,6 +297,368 @@
   </si>
   <si>
     <t xml:space="preserve">https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/invoices/supplierToReseller/02a6927e5375d83063d5c23ed4c14474c12ad209.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyer_Name_Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order_Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice_Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXABLE_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAX_RATE_AND_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300275873691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dipak Barman
+Sitalapara, Kushmandi, Kushmandi, West
+Bengal, 733132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-07-2022 09:23:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 22:42:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Blood Pressure
+Monitor - Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.1135.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701312944906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopika S G
+PS Bhavan, Vattavila Kottukal PO,
+Thiruvananthapuram, Kerala, 695501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-07-2022 09:23:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 22:28:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahyog Wellness Digital
+Clinical Thermometer with
+Quick Measurement of Oral
+and Underarm Temperature
+in Celsius and Fahrenheit -
+Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.217.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196229547107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunil
+sunil Kumar near ashok LEYLAND Indian bank
+ZUZUVADI village Hosur 635126, ZUZUVADI
+village, hosur, Tamil Nadu, 635126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 21:58:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Useful Ideal
+Nebulizers - Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.885.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426333348613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhagyashree Nandge
+House.no.583 at post manhalli tq and district
+Bidar, near gram panchayat manhalli , Bidar,
+Karnataka, 585401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 21:55:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahyog Wellness Multi
+Function Non-Contact Body &amp;
+Object Infrared Thermometer
+with IR Sensor and Color
+Changing Display  - Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.17.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.649.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142728612426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azeez
+aneesa  house, parapalli katipara (po)pullur
+anandhashramam(via)kanhangad, kasaragod,
+Kerala, 671531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 19:52:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123188061439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seema Singh
+hospital chauraha Rewa, hospital chauraha
+Rewa, Rewa, Madhya Pradesh, 486001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 19:37:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahyog Wellness Fully
+Automatic 3 Colored Display
+Upper Arm Blood Pressure
+Monitor with Small cuff (22-32
+cm) - Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.1085.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868824041122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aariz
+9/208, laal masjid road, kurnool, Andhra
+Pradesh, 518001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 19:26:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">944683692608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahesh
+flat no. A2 plot no. 5071  S.G. Udhyam flats 6th
+street, Ram Nagar North Madipakkam Chennai,
+Chennai, Tamil Nadu, 600091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-06-2022 18:29:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513081106972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagan pawar
+mogadma palli, padiyl thanda, Zahirabad,
+Telangana, 502221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-08-2022 09:07:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-08-2022 18:24:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Useful Ideal
+Nebulizer - Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">848.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284166494397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premanand Pathy
+shanti bhavan,, by pass road, near janivilli,
+village - gada damodar palli via dharakote,
+Berhampur, Odisha, 761107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-08-2022 09:27:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-08-2022 14:18:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trendy Plastic Bp Monitors -
+Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781144167071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jorwp231884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manoj Deshmukh
+80, Borai road Damoda, Durg, Chhattisgarh,
+491001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-08-2022 11:58:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-08-2022 10:15:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahyog Wellness Digital
+Weighing Scale with Glass
+Body having Capacity upto
+180 KG Weighing Scale with
+Battery (Flower Design)
+Weighing Scales/Machines  -
+Free Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs.40.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.0</t>
   </si>
 </sst>
 </file>
@@ -423,11 +786,11 @@
   </sheetPr>
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1369,4 +1732,487 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Abhishek_assigment.xlsx
+++ b/Abhishek_assigment.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Invoice_Detail" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -297,368 +296,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://s3-ap-southeast-1.amazonaws.com/meesho-supply-v2/invoices/supplierToReseller/02a6927e5375d83063d5c23ed4c14474c12ad209.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyer_Name_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice_Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT_TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXABLE_VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAX_RATE_AND_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300275873691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dipak Barman
-Sitalapara, Kushmandi, Kushmandi, West
-Bengal, 733132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-07-2022 09:23:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 22:42:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Blood Pressure
-Monitor - Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.1135.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701312944906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopika S G
-PS Bhavan, Vattavila Kottukal PO,
-Thiruvananthapuram, Kerala, 695501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-07-2022 09:23:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 22:28:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahyog Wellness Digital
-Clinical Thermometer with
-Quick Measurement of Oral
-and Underarm Temperature
-in Celsius and Fahrenheit -
-Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.217.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196229547107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunil
-sunil Kumar near ashok LEYLAND Indian bank
-ZUZUVADI village Hosur 635126, ZUZUVADI
-village, hosur, Tamil Nadu, 635126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 21:58:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universal Useful Ideal
-Nebulizers - Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.885.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426333348613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhagyashree Nandge
-House.no.583 at post manhalli tq and district
-Bidar, near gram panchayat manhalli , Bidar,
-Karnataka, 585401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 21:55:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahyog Wellness Multi
-Function Non-Contact Body &amp;
-Object Infrared Thermometer
-with IR Sensor and Color
-Changing Display  - Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.17.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.649.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142728612426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azeez
-aneesa  house, parapalli katipara (po)pullur
-anandhashramam(via)kanhangad, kasaragod,
-Kerala, 671531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 19:52:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123188061439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seema Singh
-hospital chauraha Rewa, hospital chauraha
-Rewa, Rewa, Madhya Pradesh, 486001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 19:37:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahyog Wellness Fully
-Automatic 3 Colored Display
-Upper Arm Blood Pressure
-Monitor with Small cuff (22-32
-cm) - Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.1085.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868824041122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aariz
-9/208, laal masjid road, kurnool, Andhra
-Pradesh, 518001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 19:26:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">944683692608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahesh
-flat no. A2 plot no. 5071  S.G. Udhyam flats 6th
-street, Ram Nagar North Madipakkam Chennai,
-Chennai, Tamil Nadu, 600091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-06-2022 18:29:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">513081106972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jagan pawar
-mogadma palli, padiyl thanda, Zahirabad,
-Telangana, 502221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-08-2022 09:07:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-08-2022 18:24:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universal Useful Ideal
-Nebulizer - Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">848.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284166494397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premanand Pathy
-shanti bhavan,, by pass road, near janivilli,
-village - gada damodar palli via dharakote,
-Berhampur, Odisha, 761107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-08-2022 09:27:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-08-2022 14:18:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trendy Plastic Bp Monitors -
-Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781144167071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jorwp231884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manoj Deshmukh
-80, Borai road Damoda, Durg, Chhattisgarh,
-491001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-08-2022 11:58:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-08-2022 10:15:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahyog Wellness Digital
-Weighing Scale with Glass
-Body having Capacity upto
-180 KG Weighing Scale with
-Battery (Flower Design)
-Weighing Scales/Machines  -
-Free Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">574.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rs.40.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700.0</t>
   </si>
 </sst>
 </file>
@@ -786,11 +423,11 @@
   </sheetPr>
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.62890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1732,487 +1369,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.82"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>